--- a/docs/assets/cursos/EP/LOQ4216.xlsx
+++ b/docs/assets/cursos/EP/LOQ4216.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2018</t>
+    <t>01/01/2021</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -82,7 +82,7 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840560 - Marco Antonio Carvalho Pereira</t>
+    <t>5701460 - Antonio Iacono</t>
   </si>
   <si>
     <t>Programa resumido:</t>
@@ -115,25 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>Aulas expositivas e práticas.</t>
+    <t>Provas e Trabalhos</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Exercícios de aprendizado e exercícios de avaliação farão parte da composição de notas individuais (NI), com aplicação de trabalhos práticos em grupo (NG). Sendo: Nota Final = (NI+NG)/2</t>
+    <t>M = (0,6P + 0,4T)P = Prova escritaT = Trabalho sobre projeto de fábricaM = Média de aproveitamento do alunoAprovação com média de aproveitamento maior ou igual a 5,0 e no mínimo 70% de frequência às aulas.A média das provas deve ser maior ou igual a 5,0 (cinco) para que o aluno possa utilizar a nota do Trabalho.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A recuperação deverá consistir de uma prova englobando a matéria toda do semestre. - A média final (pós-recuperação) deverá ser composta por uma média simples entre a nota do semestre (nota final) e a da prova de recuperação</t>
+    <t>MF = (0,5 M + 0,5 R)M = Média de aproveitamento do aluno, antes da recuperaçãoR = Nota de uma prova de recuperaçãoMF = nota final de aproveitamento, após a recuperaçãoAprovação com média final de aproveitamento maior ou igual a 5,0.A recuperação deverá consistir de uma prova escrita englobando a matéria toda do semestre.Terá direito à prova de recuperação aqueles alunos reprovados com nota acima de 3,0 e frequência mínima de 70%.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Müther, R. Planejamento do Layout: Sistema SLP. São Paulo, Edgard Blücher, 1978. Francischini, P.G.; Gurgel, F.A.C. Administração de recursos materiais e patrimoniais. 2a. Edição. São Paulo. Editora Cengage. 2013. Slack, N. et al Administração da Produção. 3ª ed. São Paulo, Atlas, 2009. Valle, C.E. Implantação de Indústrias. Rio de Janeiro, LTC Editora, 1975.</t>
+    <t>BANZATO, Eduardo et al. Atualidades na armazenagem. São Paulo: IMAM, 2003.BARNES, R.M. Estudo de Movimentos de Tempos: projeto e medida do trabalho. São Paulo, Edgar Blücher, 1977.GURGEL, F.A.C. Administração de recursos materiais e patrimoniais. 2a. Edição. São Paulo. Editora Cengage. 2013. FRANCISCHINI, P.G.; VALLE, C.E. Implantação de Indústrias. Rio de Janeiro, LTC Editora, 1975.LEE, Q et al. Projeto de Instalações e Locais de Trabalho. São Paulo: IMAM, 1998.MOURA, Reinaldo Aparecido. Sistemas e técnicas de movimentação e armazenagem de materiais. IMAM, 2012.NEWMANN, C.; SCALICE, R.K. Projeto de Fábrica e Layout. Rio de Janeiro, Elsevier, 2015.Müther, R. Planejamento do Layout: Sistema SLP. São Paulo, Edgard Blücher, 1978. SLACK, Nigel et al. Administração da produção. São Paulo: Atlas, 8ª ed. 2018.TOMPKINS, James A. et al. Planejamento de instalações. Editora LTC:, 2013.</t>
   </si>
   <si>
     <t>Requisitos:</t>
